--- a/server/LISTAS/ma/SOPORTE VISILLO y fleje DISMAY.xlsx
+++ b/server/LISTAS/ma/SOPORTE VISILLO y fleje DISMAY.xlsx
@@ -804,7 +804,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="25" t="n">
-        <v>45289</v>
+        <v>45308</v>
       </c>
       <c r="E1" s="3" t="n"/>
     </row>

--- a/server/LISTAS/ma/SOPORTE VISILLO y fleje DISMAY.xlsx
+++ b/server/LISTAS/ma/SOPORTE VISILLO y fleje DISMAY.xlsx
@@ -804,7 +804,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="25" t="n">
-        <v>45308</v>
+        <v>45309</v>
       </c>
       <c r="E1" s="3" t="n"/>
     </row>
@@ -880,7 +880,7 @@
       </c>
       <c r="C23" s="20" t="n"/>
       <c r="D23" s="10" t="n">
-        <v>38.294</v>
+        <v>44.038</v>
       </c>
       <c r="F23" s="11" t="n"/>
     </row>
@@ -897,7 +897,7 @@
       </c>
       <c r="C24" s="20" t="n"/>
       <c r="D24" s="10" t="n">
-        <v>38.294</v>
+        <v>44.038</v>
       </c>
       <c r="F24" s="11" t="n"/>
     </row>
@@ -914,7 +914,7 @@
       </c>
       <c r="C25" s="20" t="n"/>
       <c r="D25" s="12" t="n">
-        <v>22.693</v>
+        <v>26.097</v>
       </c>
       <c r="F25" s="11" t="n"/>
     </row>
@@ -931,7 +931,7 @@
       </c>
       <c r="C26" s="18" t="n"/>
       <c r="D26" s="12" t="n">
-        <v>22.693</v>
+        <v>26.097</v>
       </c>
       <c r="F26" s="11" t="n"/>
     </row>
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C41" s="18" t="n"/>
       <c r="D41" s="10" t="n">
-        <v>84.559</v>
+        <v>97.24299999999999</v>
       </c>
       <c r="F41" s="11" t="n"/>
     </row>
@@ -1028,7 +1028,7 @@
       </c>
       <c r="C42" s="18" t="n"/>
       <c r="D42" s="10" t="n">
-        <v>84.559</v>
+        <v>97.24299999999999</v>
       </c>
       <c r="F42" s="11" t="n"/>
     </row>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="C43" s="18" t="n"/>
       <c r="D43" s="10" t="n">
-        <v>96.43899999999999</v>
+        <v>110.905</v>
       </c>
       <c r="F43" s="11" t="n"/>
     </row>
@@ -1062,26 +1062,26 @@
       </c>
       <c r="C44" s="18" t="n"/>
       <c r="D44" s="10" t="n">
-        <v>120.652</v>
+        <v>138.75</v>
       </c>
       <c r="F44" s="11" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="A10:D10"/>
     <mergeCell ref="B24:C24"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B40:C40"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B22:C22"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="A9:D9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/ma/SOPORTE VISILLO y fleje DISMAY.xlsx
+++ b/server/LISTAS/ma/SOPORTE VISILLO y fleje DISMAY.xlsx
@@ -804,7 +804,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="25" t="n">
-        <v>45309</v>
+        <v>45310</v>
       </c>
       <c r="E1" s="3" t="n"/>
     </row>

--- a/server/LISTAS/ma/SOPORTE VISILLO y fleje DISMAY.xlsx
+++ b/server/LISTAS/ma/SOPORTE VISILLO y fleje DISMAY.xlsx
@@ -804,7 +804,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="25" t="n">
-        <v>45311</v>
+        <v>45344</v>
       </c>
       <c r="E1" s="3" t="n"/>
     </row>
@@ -1068,20 +1068,20 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="A10:D10"/>
     <mergeCell ref="B24:C24"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B40:C40"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B22:C22"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="A9:D9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/ma/SOPORTE VISILLO y fleje DISMAY.xlsx
+++ b/server/LISTAS/ma/SOPORTE VISILLO y fleje DISMAY.xlsx
@@ -804,7 +804,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="25" t="n">
-        <v>45344</v>
+        <v>45405</v>
       </c>
       <c r="E1" s="3" t="n"/>
     </row>
@@ -1068,20 +1068,20 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B44:C44"/>
     <mergeCell ref="B24:C24"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="B40:C40"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="A11:D11"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B22:C22"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B43:C43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/ma/SOPORTE VISILLO y fleje DISMAY.xlsx
+++ b/server/LISTAS/ma/SOPORTE VISILLO y fleje DISMAY.xlsx
@@ -804,7 +804,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="25" t="n">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="E1" s="3" t="n"/>
     </row>
@@ -1068,20 +1068,20 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="A10:D10"/>
     <mergeCell ref="B24:C24"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B40:C40"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B22:C22"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="A9:D9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/ma/SOPORTE VISILLO y fleje DISMAY.xlsx
+++ b/server/LISTAS/ma/SOPORTE VISILLO y fleje DISMAY.xlsx
@@ -804,7 +804,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="25" t="n">
-        <v>45406</v>
+        <v>45436</v>
       </c>
       <c r="E1" s="3" t="n"/>
     </row>
@@ -880,7 +880,7 @@
       </c>
       <c r="C23" s="20" t="n"/>
       <c r="D23" s="10" t="n">
-        <v>38.294</v>
+        <v>48.442</v>
       </c>
       <c r="F23" s="11" t="n"/>
     </row>
@@ -897,7 +897,7 @@
       </c>
       <c r="C24" s="20" t="n"/>
       <c r="D24" s="10" t="n">
-        <v>38.294</v>
+        <v>48.442</v>
       </c>
       <c r="F24" s="11" t="n"/>
     </row>
@@ -914,7 +914,7 @@
       </c>
       <c r="C25" s="20" t="n"/>
       <c r="D25" s="12" t="n">
-        <v>22.693</v>
+        <v>28.707</v>
       </c>
       <c r="F25" s="11" t="n"/>
     </row>
@@ -931,7 +931,7 @@
       </c>
       <c r="C26" s="18" t="n"/>
       <c r="D26" s="12" t="n">
-        <v>22.693</v>
+        <v>28.707</v>
       </c>
       <c r="F26" s="11" t="n"/>
     </row>
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C41" s="18" t="n"/>
       <c r="D41" s="10" t="n">
-        <v>84.559</v>
+        <v>106.967</v>
       </c>
       <c r="F41" s="11" t="n"/>
     </row>
@@ -1028,7 +1028,7 @@
       </c>
       <c r="C42" s="18" t="n"/>
       <c r="D42" s="10" t="n">
-        <v>84.559</v>
+        <v>106.967</v>
       </c>
       <c r="F42" s="11" t="n"/>
     </row>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="C43" s="18" t="n"/>
       <c r="D43" s="10" t="n">
-        <v>96.43899999999999</v>
+        <v>121.996</v>
       </c>
       <c r="F43" s="11" t="n"/>
     </row>
@@ -1062,26 +1062,26 @@
       </c>
       <c r="C44" s="18" t="n"/>
       <c r="D44" s="10" t="n">
-        <v>120.652</v>
+        <v>152.625</v>
       </c>
       <c r="F44" s="11" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B44:C44"/>
     <mergeCell ref="B24:C24"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="B40:C40"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="A11:D11"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B22:C22"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B43:C43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
